--- a/karma_star.xlsx
+++ b/karma_star.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\py_projects\templepublic-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202800AB-B809-41D6-9AB3-C8AD2792F963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636608BA-597B-4321-80AE-B85C85BECE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{90CB229F-E243-4E53-B2E6-F8F0DA9D3A30}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t xml:space="preserve">                                                             கோவில்</t>
   </si>
@@ -63,24 +63,12 @@
     <t>திருவாதிரை</t>
   </si>
   <si>
-    <t>ஆயில்யம்</t>
-  </si>
-  <si>
     <t>பூரம்</t>
   </si>
   <si>
     <t>https://temple.dinamalar.com/new.php?id=647</t>
   </si>
   <si>
-    <t>அஸ்தம்</t>
-  </si>
-  <si>
-    <t>சித்திரை</t>
-  </si>
-  <si>
-    <t>அனுஷம்</t>
-  </si>
-  <si>
     <t>அருள்மிகு புண்டரீகாட்சன் திருக்கோயில்,திருவெள்ளறை-திருச்சி</t>
   </si>
   <si>
@@ -90,22 +78,7 @@
     <t>மூலம்</t>
   </si>
   <si>
-    <t>பூராடம்</t>
-  </si>
-  <si>
-    <t>உத்திராடம்</t>
-  </si>
-  <si>
     <t>https://temple.dinamalar.com/new.php?id=851</t>
-  </si>
-  <si>
-    <t>அவிட்டம்</t>
-  </si>
-  <si>
-    <t>பூரட்டாதி</t>
-  </si>
-  <si>
-    <t>உத்திரட்டாதி</t>
   </si>
   <si>
     <t>கர்ம நட்சத்திரம்</t>
@@ -291,6 +264,96 @@
   </si>
   <si>
     <t>அருள்மிகு சுப்பிரமணியர் கோயில், சிவன்மலை, காங்கேயம்,  திருப்பூர் மாவட்டம்,</t>
+  </si>
+  <si>
+    <t>ஆயில்யம் -1</t>
+  </si>
+  <si>
+    <t>ஆயில்யம் -2</t>
+  </si>
+  <si>
+    <t>ஆயில்யம் -3</t>
+  </si>
+  <si>
+    <t>ஆயில்யம் - 4</t>
+  </si>
+  <si>
+    <t>அஸ்தம் - 1</t>
+  </si>
+  <si>
+    <t>அஸ்தம் - 2</t>
+  </si>
+  <si>
+    <t>சித்திரை -1</t>
+  </si>
+  <si>
+    <t>சித்திரை - 2</t>
+  </si>
+  <si>
+    <t>சித்திரை - 3</t>
+  </si>
+  <si>
+    <t>சித்திரை - 4</t>
+  </si>
+  <si>
+    <t>சித்திரை - 5</t>
+  </si>
+  <si>
+    <t>அனுஷம் -1</t>
+  </si>
+  <si>
+    <t>அனுஷம் -2</t>
+  </si>
+  <si>
+    <t>அனுஷம் -3</t>
+  </si>
+  <si>
+    <t>அனுஷம் -4</t>
+  </si>
+  <si>
+    <t>அனுஷம் -5</t>
+  </si>
+  <si>
+    <t>பூராடம் -1</t>
+  </si>
+  <si>
+    <t>பூராடம் -2</t>
+  </si>
+  <si>
+    <t>பூராடம் -3</t>
+  </si>
+  <si>
+    <t>உத்திராடம் -1</t>
+  </si>
+  <si>
+    <t>உத்திராடம் -2</t>
+  </si>
+  <si>
+    <t>அவிட்டம் -1</t>
+  </si>
+  <si>
+    <t>அவிட்டம் -2</t>
+  </si>
+  <si>
+    <t>அவிட்டம் -3</t>
+  </si>
+  <si>
+    <t>பூரட்டாதி -1</t>
+  </si>
+  <si>
+    <t>பூரட்டாதி -2</t>
+  </si>
+  <si>
+    <t>பூரட்டாதி -3</t>
+  </si>
+  <si>
+    <t>உத்திரட்டாதி -1</t>
+  </si>
+  <si>
+    <t>உத்திரட்டாதி -2</t>
+  </si>
+  <si>
+    <t>உத்திரட்டாதி -3</t>
   </si>
 </sst>
 </file>
@@ -745,20 +808,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76655DC9-C556-4EB5-8852-9DD07D0304A0}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="95" customWidth="1"/>
     <col min="3" max="3" width="111.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -772,7 +835,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -783,10 +846,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -794,93 +857,93 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -888,62 +951,62 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>4</v>
@@ -954,197 +1017,197 @@
     </row>
     <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C36" s="1"/>
     </row>
